--- a/AE Zaid/Satkhira DV-I/2022-23/Regulator/Chakbara Regulator/Chakbara_input.xlsx
+++ b/AE Zaid/Satkhira DV-I/2022-23/Regulator/Chakbara Regulator/Chakbara_input.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" tabRatio="637" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8136" tabRatio="637" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Return_wall_data_MKS" sheetId="7" r:id="rId7"/>
     <sheet name="Wing_Wall_Data" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -292,7 +292,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -600,7 +600,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -614,7 +614,7 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -626,7 +626,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -636,17 +636,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A10" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -657,7 +657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -668,7 +668,7 @@
         <v>6.7249999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -679,7 +679,7 @@
         <v>5.2480000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -691,7 +691,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -707,7 +707,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -719,7 +719,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -731,7 +731,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -743,7 +743,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -752,7 +752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -761,7 +761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -772,7 +772,7 @@
         <v>-4.92</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -780,10 +780,10 @@
         <v>20</v>
       </c>
       <c r="C12" s="1">
-        <v>178.44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -792,7 +792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -803,7 +803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -811,10 +811,10 @@
         <v>17</v>
       </c>
       <c r="C15" s="1">
-        <v>20.335999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -825,7 +825,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -836,7 +836,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -847,7 +847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -855,10 +855,10 @@
         <v>25</v>
       </c>
       <c r="C19" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -869,7 +869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -880,7 +880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -891,7 +891,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -902,7 +902,7 @@
         <v>9.84</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -913,7 +913,7 @@
         <v>21.32</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -921,7 +921,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -932,7 +932,7 @@
         <v>17.876000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -940,7 +940,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -951,7 +951,7 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -962,7 +962,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -973,7 +973,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -984,7 +984,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -992,10 +992,10 @@
         <v>17</v>
       </c>
       <c r="C32" s="1">
-        <v>15.416</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>49</v>
       </c>
       <c r="C33" s="1">
-        <v>8.1999999999999993</v>
+        <v>12.956</v>
       </c>
     </row>
   </sheetData>
@@ -1019,9 +1019,9 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="12.140625" customWidth="1"/>
+    <col min="3" max="4" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1233,9 +1233,9 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -1257,18 +1257,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>14.923999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>68</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>58</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>55</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>57</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>65</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>66</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>67</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>69</v>
       </c>
@@ -1463,14 +1463,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1653,20 +1653,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -1692,7 +1692,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
@@ -1700,11 +1700,11 @@
         <v>62</v>
       </c>
       <c r="C3" s="1">
-        <v>8.1999999999999993</v>
+        <v>12.956</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>77</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>78</v>
       </c>
@@ -1731,8 +1731,11 @@
       <c r="D5" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F5" s="1">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>79</v>
       </c>
@@ -1745,8 +1748,11 @@
       <c r="D6" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F6" s="1">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>80</v>
       </c>
@@ -1759,8 +1765,11 @@
       <c r="D7" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F7" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>63</v>
       </c>
@@ -1773,8 +1782,11 @@
       <c r="D8" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F8" s="1">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>65</v>
       </c>
@@ -1789,7 +1801,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -1804,7 +1816,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>67</v>
       </c>
@@ -1819,7 +1831,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>69</v>
       </c>
